--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorts\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228B0E1-385B-438A-83A3-55D8A557ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BFE0F-4470-4BF6-9A37-AFD745F2B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>longread</t>
-  </si>
-  <si>
     <t>https://ig.ft.com/uber-game/</t>
   </si>
   <si>
@@ -95,18 +92,12 @@
     <t>Augmented reality of olympic athletes</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>https://www.nytimes.com/interactive/2018/05/01/science/mars-nasa-insight-ar-3d-ul.html</t>
   </si>
   <si>
     <t>Augmented Reality: Explore NASA’s InSight Mission on Mars</t>
   </si>
   <si>
-    <t>Longread 3D</t>
-  </si>
-  <si>
     <t>https://www.nytimes.com/interactive/2018/02/01/sports/olympics/nyt-ar-augmented-reality-ul.html</t>
   </si>
   <si>
@@ -114,16 +105,48 @@
   </si>
   <si>
     <t>EXPLAINER AUGMENTED</t>
+  </si>
+  <si>
+    <t>Snowfall</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>Snowfall 3D</t>
+  </si>
+  <si>
+    <t>GEOMAP</t>
+  </si>
+  <si>
+    <t>Wordt Nederland wereldmacht met supersnelle chips?</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>https://specials.fd.nl/wordt-nederland-wereldmacht-met-supersnelle-chips#nav</t>
+  </si>
+  <si>
+    <t>AB-testing + hierover literatuur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,13 +169,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE47C8-F4B9-47B7-B7A6-91A0ADF3CE15}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,9 +566,9 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
@@ -551,24 +577,24 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -577,15 +603,15 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -594,15 +620,15 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -611,14 +637,44 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{0FA44992-D8AF-482A-8434-B79DB333E3D7}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{E91601F3-0C76-4A9A-A83F-6E3BD6D63346}"/>
+    <hyperlink ref="F8" r:id="rId3" location="nav" xr:uid="{5DC1393A-C4A6-4B32-BE76-146EE756C137}"/>
+    <hyperlink ref="F3" r:id="rId4" location="/?part=tunnel-creek" xr:uid="{CA1C13F0-6B17-44BD-8A2F-DB345F56B8F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorts\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BFE0F-4470-4BF6-9A37-AFD745F2B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36E65E-F8B6-49A6-8E41-A9FBE04D012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Snowfall</t>
   </si>
   <si>
-    <t>Interactive</t>
-  </si>
-  <si>
     <t>Snowfall 3D</t>
   </si>
   <si>
@@ -129,6 +126,42 @@
   </si>
   <si>
     <t>AB-testing + hierover literatuur</t>
+  </si>
+  <si>
+    <t>https://specials.app.nos.nl/branden-los-angeles/</t>
+  </si>
+  <si>
+    <t>scoll_BG</t>
+  </si>
+  <si>
+    <t>https://www.versbeton.nl/2018/11/speel-de-groene-havenbaas-grote-keuzes-voor-een-groene-toekomst/</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>https://www.versbeton.nl/2018/06/game-on-de-bouwende-macht-dat-ben-jij/</t>
+  </si>
+  <si>
+    <t>https://pointer.kro-ncrv.nl/op-deze-kaart-onthullen-duizenden-vrouwen-onveilige-plekken-check-jouw-buurt</t>
+  </si>
+  <si>
+    <t>Versbeton</t>
+  </si>
+  <si>
+    <t>KRO-ncrv</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>https://pointer.kro-ncrv.nl/pointer-podcast-de-schuldigen</t>
+  </si>
+  <si>
+    <t>Audio Fragmenten</t>
+  </si>
+  <si>
+    <t>https://pointer.kro-ncrv.nl/kinderbloed-drinken-hiv-vaccins-misinformatie-op-spotify</t>
   </si>
 </sst>
 </file>
@@ -514,7 +547,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -603,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -620,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -645,26 +678,107 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -673,8 +787,9 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{E91601F3-0C76-4A9A-A83F-6E3BD6D63346}"/>
     <hyperlink ref="F8" r:id="rId3" location="nav" xr:uid="{5DC1393A-C4A6-4B32-BE76-146EE756C137}"/>
     <hyperlink ref="F3" r:id="rId4" location="/?part=tunnel-creek" xr:uid="{CA1C13F0-6B17-44BD-8A2F-DB345F56B8F7}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{910A0504-1822-4F3C-A4E3-991898C43B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorts\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36E65E-F8B6-49A6-8E41-A9FBE04D012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFD44D-8B94-46EA-ADF8-C17D955CCCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -125,15 +125,9 @@
     <t>https://specials.fd.nl/wordt-nederland-wereldmacht-met-supersnelle-chips#nav</t>
   </si>
   <si>
-    <t>AB-testing + hierover literatuur</t>
-  </si>
-  <si>
     <t>https://specials.app.nos.nl/branden-los-angeles/</t>
   </si>
   <si>
-    <t>scoll_BG</t>
-  </si>
-  <si>
     <t>https://www.versbeton.nl/2018/11/speel-de-groene-havenbaas-grote-keuzes-voor-een-groene-toekomst/</t>
   </si>
   <si>
@@ -162,6 +156,33 @@
   </si>
   <si>
     <t>https://pointer.kro-ncrv.nl/kinderbloed-drinken-hiv-vaccins-misinformatie-op-spotify</t>
+  </si>
+  <si>
+    <t>https://specials.app.nos.nl/mijnen-in-limburg/</t>
+  </si>
+  <si>
+    <t>De laatste steenkool</t>
+  </si>
+  <si>
+    <t>Scoll Game</t>
+  </si>
+  <si>
+    <t>https://app.nos.nl/op3/witwasmachine/#/</t>
+  </si>
+  <si>
+    <t>Witwasmachine</t>
+  </si>
+  <si>
+    <t>https://specials.app.nos.nl/kabels-onderwater/</t>
+  </si>
+  <si>
+    <t>Het wereldwijde web</t>
+  </si>
+  <si>
+    <t>https://specials.app.nos.nl/wie-is-wie-in-syrie/</t>
+  </si>
+  <si>
+    <t>Wie is wie in syrie</t>
   </si>
 </sst>
 </file>
@@ -547,7 +568,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -700,13 +721,13 @@
         <v>2025</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -714,13 +735,13 @@
         <v>2018</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -728,13 +749,13 @@
         <v>2018</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -742,24 +763,24 @@
         <v>2024</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -767,18 +788,69 @@
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorts\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFD44D-8B94-46EA-ADF8-C17D955CCCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A28B53-10A6-4870-95E4-7F7C8407B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -183,6 +183,100 @@
   </si>
   <si>
     <t>Wie is wie in syrie</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/espn/feature/story/_/id/9175394/out-great-alone</t>
+  </si>
+  <si>
+    <t>Gratland</t>
+  </si>
+  <si>
+    <t>Out in the Great Alone</t>
+  </si>
+  <si>
+    <t>Rolling Stone</t>
+  </si>
+  <si>
+    <t>https://investigation.rollingstone.com/dj-photo-war-crimes-bosnia/</t>
+  </si>
+  <si>
+    <t>The DJ and the war crimes</t>
+  </si>
+  <si>
+    <t>https://highline.huffingtonpost.com/articles/en/the-21st-century-gold-rush-refugees/#/niger</t>
+  </si>
+  <si>
+    <t>Huffington Post</t>
+  </si>
+  <si>
+    <t>Gladeye</t>
+  </si>
+  <si>
+    <t>The 21st century gold rush</t>
+  </si>
+  <si>
+    <t>Dissapearing Data</t>
+  </si>
+  <si>
+    <t>https://highline.huffingtonpost.com/article/disappearing-data/#</t>
+  </si>
+  <si>
+    <t>Pitchfork</t>
+  </si>
+  <si>
+    <t>https://www.pitchfork.com/features/cover-story/reader/bat-for-lashes/</t>
+  </si>
+  <si>
+    <t>Glitter in the Dark</t>
+  </si>
+  <si>
+    <t>https://www.sfchronicle.com/projects/2021/jessica-simulation-artificial-intelligence/</t>
+  </si>
+  <si>
+    <t>San Fransico Chronicle</t>
+  </si>
+  <si>
+    <t>The Jessica Simulation:
+Love and loss in the age of A.I.</t>
+  </si>
+  <si>
+    <t>https://www.propublica.org/article/trashed-inside-the-deadly-world-of-private-garbage-collection</t>
+  </si>
+  <si>
+    <t>ProPublica</t>
+  </si>
+  <si>
+    <t>Trashed: Inside the Deadly World of Private Garbage Collection</t>
+  </si>
+  <si>
+    <t>Map met een simulatie</t>
+  </si>
+  <si>
+    <t>Achtergrond verandering met scroll</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/graphics/2018/opinions/arlington-texas/</t>
+  </si>
+  <si>
+    <t>Quotes centered when scrolled</t>
+  </si>
+  <si>
+    <t>Washington Post</t>
+  </si>
+  <si>
+    <t>What do we owe her now?</t>
+  </si>
+  <si>
+    <t>https://projects.thestar.com/harrison-family-murders/</t>
+  </si>
+  <si>
+    <t>The Star</t>
+  </si>
+  <si>
+    <t>3D animation when scrolled</t>
+  </si>
+  <si>
+    <t>Improbable Cause</t>
   </si>
 </sst>
 </file>
@@ -227,9 +321,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,25 +662,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE47C8-F4B9-47B7-B7A6-91A0ADF3CE15}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="97.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -646,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -663,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -680,7 +778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -697,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -711,12 +809,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2025</v>
       </c>
@@ -726,11 +824,11 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2018</v>
       </c>
@@ -744,7 +842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2018</v>
       </c>
@@ -758,7 +856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2024</v>
       </c>
@@ -772,7 +870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -783,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2022</v>
       </c>
@@ -793,11 +891,11 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -811,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -825,7 +923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -839,7 +937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -853,15 +951,192 @@
         <v>47</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>2012</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>2018</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{0FA44992-D8AF-482A-8434-B79DB333E3D7}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{E91601F3-0C76-4A9A-A83F-6E3BD6D63346}"/>
-    <hyperlink ref="F8" r:id="rId3" location="nav" xr:uid="{5DC1393A-C4A6-4B32-BE76-146EE756C137}"/>
-    <hyperlink ref="F3" r:id="rId4" location="/?part=tunnel-creek" xr:uid="{CA1C13F0-6B17-44BD-8A2F-DB345F56B8F7}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{910A0504-1822-4F3C-A4E3-991898C43B57}"/>
+    <hyperlink ref="F22" r:id="rId1" location="/niger" xr:uid="{D141542D-FCEF-4E3D-B17A-B5F7C1275F5D}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{910A0504-1822-4F3C-A4E3-991898C43B57}"/>
+    <hyperlink ref="F3" r:id="rId3" location="/?part=tunnel-creek" xr:uid="{CA1C13F0-6B17-44BD-8A2F-DB345F56B8F7}"/>
+    <hyperlink ref="F8" r:id="rId4" location="nav" xr:uid="{5DC1393A-C4A6-4B32-BE76-146EE756C137}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{E91601F3-0C76-4A9A-A83F-6E3BD6D63346}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{0FA44992-D8AF-482A-8434-B79DB333E3D7}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{780C8D85-0C34-4774-9470-CAEDE6869677}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{436F0FB6-DF75-4F7C-9A61-7E6255BA5F30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A28B53-10A6-4870-95E4-7F7C8407B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DCFBD-E7EB-498A-AE22-0F4EC7E6F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -947,7 +947,7 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -964,7 +964,7 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1135,8 +1135,12 @@
     <hyperlink ref="F6" r:id="rId6" xr:uid="{0FA44992-D8AF-482A-8434-B79DB333E3D7}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{780C8D85-0C34-4774-9470-CAEDE6869677}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{436F0FB6-DF75-4F7C-9A61-7E6255BA5F30}"/>
+    <hyperlink ref="F20" r:id="rId9" xr:uid="{AE93C6AA-B7BE-4383-82A8-1DA2822584E0}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{56C71147-F865-4A3A-818E-ADA2A45D15D6}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{5D90232E-9B05-4C4A-8ED7-286D6AC69A95}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{EB773EDF-8248-438A-8B16-9DD6B2F31AB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DCFBD-E7EB-498A-AE22-0F4EC7E6F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F333C5-2527-429F-810B-30C9518AB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Improbable Cause</t>
+  </si>
+  <si>
+    <t>DNA van MDMA</t>
+  </si>
+  <si>
+    <t>https://lab.nos.nl/projects/drugs/</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE47C8-F4B9-47B7-B7A6-91A0ADF3CE15}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1129,17 @@
       </c>
       <c r="F28" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>2016</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
+++ b/Vakken Y2/Scriptie/Multimediavoorbeelden_Scriptie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\LEIDEN\JNM-Premaster\Vakken Y2\Scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F333C5-2527-429F-810B-30C9518AB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F01FB2-90AF-4A85-B59D-1FFCBFD90B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3985F907-91D4-424A-A40E-107F98612B09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>Scriptie journalsim</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Huffington Post</t>
-  </si>
-  <si>
-    <t>Gladeye</t>
   </si>
   <si>
     <t>The 21st century gold rush</t>
@@ -283,13 +280,58 @@
   </si>
   <si>
     <t>https://lab.nos.nl/projects/drugs/</t>
+  </si>
+  <si>
+    <t>The Golden Age of White Collar Crime | HuffPost Highline</t>
+  </si>
+  <si>
+    <t>SCROLL IMAGES</t>
+  </si>
+  <si>
+    <t>Scroll images</t>
+  </si>
+  <si>
+    <t>Trump Got His Wall, After All | HuffPost Highline</t>
+  </si>
+  <si>
+    <t>Interactive clicking</t>
+  </si>
+  <si>
+    <t>Probeer: met deze maatregelen haalt NL de klimaatdoelen</t>
+  </si>
+  <si>
+    <t>https://specials.fd.nl/maakt-de-uitkoopregeling-iedere-boer-miljonair</t>
+  </si>
+  <si>
+    <t>Animation + Audiovisueel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation </t>
+  </si>
+  <si>
+    <t>Interactief</t>
+  </si>
+  <si>
+    <t>Interactief + Animaties</t>
+  </si>
+  <si>
+    <t>https://specials.fd.nl/buitenlandse-bedrijven-maken-de-dienst-uit-in-de-haven-van-rotterdam</t>
+  </si>
+  <si>
+    <t>Animaties + audiovisueel</t>
+  </si>
+  <si>
+    <t>Animatie</t>
+  </si>
+  <si>
+    <t>Audiovisueel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,13 +347,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,19 +401,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE47C8-F4B9-47B7-B7A6-91A0ADF3CE15}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,15 +766,17 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="97.28515625" customWidth="1"/>
+    <col min="6" max="6" width="104.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -706,11 +795,20 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
       <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -729,11 +827,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -749,8 +856,17 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -766,8 +882,17 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -784,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -797,11 +922,11 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -815,12 +940,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2025</v>
       </c>
@@ -834,7 +959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2018</v>
       </c>
@@ -848,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2018</v>
       </c>
@@ -858,11 +983,11 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2024</v>
       </c>
@@ -876,7 +1001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -887,7 +1012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2022</v>
       </c>
@@ -901,7 +1026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -915,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -925,11 +1050,11 @@
       <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -939,11 +1064,11 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -957,7 +1082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -974,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -987,16 +1112,13 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -1010,13 +1132,10 @@
       <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -1027,119 +1146,236 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2012</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>2021</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>2018</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>2018</v>
       </c>
       <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>2016</v>
       </c>
       <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>SUM(G3:G43)</f>
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:I44" si="0">SUM(H3:H43)</f>
+        <v>17</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1156,8 +1392,20 @@
     <hyperlink ref="F26" r:id="rId10" xr:uid="{56C71147-F865-4A3A-818E-ADA2A45D15D6}"/>
     <hyperlink ref="F19" r:id="rId11" xr:uid="{5D90232E-9B05-4C4A-8ED7-286D6AC69A95}"/>
     <hyperlink ref="F14" r:id="rId12" xr:uid="{EB773EDF-8248-438A-8B16-9DD6B2F31AB7}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{016E38C2-ECED-4FF3-B664-A3EA6E515801}"/>
+    <hyperlink ref="F28" r:id="rId14" xr:uid="{3DC09B57-FDF8-4AC6-8DE1-336620BE3DE3}"/>
+    <hyperlink ref="F17" r:id="rId15" location="/" xr:uid="{125BECE0-40D3-4D44-8359-A4A8253CA6C7}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{DB314C46-F0A3-4238-81F3-C266152A776E}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{64F13176-F0D4-4368-8D57-83650D385395}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{94165CE6-6DC7-4EB0-8BD1-EADAE02724E2}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{9FC3A100-8E66-4026-B806-7AB21284B3B7}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{E2C4ACCF-00D8-4700-89C7-31D29218800A}"/>
+    <hyperlink ref="F35" r:id="rId21" display="https://www.huffpost.com/highline/article/white-collar-crime/" xr:uid="{10DB1F36-68D0-4DB4-8F02-AEE4EF0B48F8}"/>
+    <hyperlink ref="F36" r:id="rId22" display="https://www.huffpost.com/highline/article/invisible-wall/" xr:uid="{94881585-CED0-4C24-BDD6-BC912CC432C3}"/>
+    <hyperlink ref="F38" r:id="rId23" display="https://specials.app.nos.nl/tool-maatregelen-klimaatdoelen/" xr:uid="{94A7A763-ED84-4183-9666-8BA55D9184F2}"/>
+    <hyperlink ref="F40" r:id="rId24" xr:uid="{0E006DF6-8FB4-412B-91F0-9D4965227BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>